--- a/output/fit_clients/fit_round_335.xlsx
+++ b/output/fit_clients/fit_round_335.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1957954752.782861</v>
+        <v>2430553303.178735</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1147612457690201</v>
+        <v>0.07836055913764101</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03309745525000074</v>
+        <v>0.04108334691834412</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>978977366.3685524</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2146131400.557038</v>
+        <v>1930677198.5391</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1285000031943839</v>
+        <v>0.1687885663026835</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04015333454703356</v>
+        <v>0.04214241622389941</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1073065762.97313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5045085443.53663</v>
+        <v>4598181994.697395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1668637691860163</v>
+        <v>0.1391901752758621</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02992556575847796</v>
+        <v>0.02995132897605834</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>121</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2522542809.992737</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2581113381.467317</v>
+        <v>3515984756.512596</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07322681323925759</v>
+        <v>0.1027923081819735</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04862660760484252</v>
+        <v>0.03607532225150261</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>123</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1290556788.334507</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2365551638.049928</v>
+        <v>1851858855.117162</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1025580041288169</v>
+        <v>0.1083790787307852</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05395645864152733</v>
+        <v>0.04556327919976118</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1182775809.064863</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2248029969.731164</v>
+        <v>3060377933.45941</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08085375632486694</v>
+        <v>0.07876075326598977</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04101809640779958</v>
+        <v>0.0374174301251731</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>103</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1124015022.160184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2986358404.117157</v>
+        <v>3350467009.018353</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2111871033164976</v>
+        <v>0.1986675677234876</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03309312214918458</v>
+        <v>0.03268067201983683</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>106</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1493179258.185679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2184685332.232778</v>
+        <v>2189049113.495823</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1687064829759027</v>
+        <v>0.152716511689198</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03262684787324219</v>
+        <v>0.03592779444826745</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1092342667.112553</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4016362985.960389</v>
+        <v>4699813118.016635</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1391807254631784</v>
+        <v>0.1974418374518072</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05225501780633984</v>
+        <v>0.03515246917903963</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>141</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2008181516.174898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3080086208.938201</v>
+        <v>3280592318.808558</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1307004253817452</v>
+        <v>0.1435474254042335</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03435588978650937</v>
+        <v>0.04174174962293093</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>138</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1540043053.00859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2718070416.03835</v>
+        <v>2753117593.102345</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1245139057329689</v>
+        <v>0.127649976144379</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04414515021542131</v>
+        <v>0.04346531836552157</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>114</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1359035200.223954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3926338989.580764</v>
+        <v>4428235751.82859</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07505915803627132</v>
+        <v>0.06239228494872892</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02330940715891318</v>
+        <v>0.03074192428961835</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>112</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1963169553.466543</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2951999815.595381</v>
+        <v>2453054022.103087</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1489115791390151</v>
+        <v>0.168868004325592</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02901482133635619</v>
+        <v>0.04314500603554546</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>110</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1475999945.721366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1780503165.13644</v>
+        <v>1289709553.93</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07326914237143377</v>
+        <v>0.1042781195762797</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03845520048811802</v>
+        <v>0.04157711486453121</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>890251731.6668921</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2300995829.401294</v>
+        <v>2620723956.042673</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08447808741201637</v>
+        <v>0.08693013823928009</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03208790527928355</v>
+        <v>0.04633018225283233</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>66</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1150497963.314142</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4353651003.566508</v>
+        <v>4857525383.395318</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1205394546924336</v>
+        <v>0.1598166910492524</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03306046578007484</v>
+        <v>0.04252447474602317</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>98</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2176825518.917712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2714642181.826283</v>
+        <v>2791861426.877582</v>
       </c>
       <c r="F18" t="n">
-        <v>0.129549964346507</v>
+        <v>0.1451396141252336</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02797714869256991</v>
+        <v>0.02410985531498954</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>109</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1357321141.817688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>944025067.8598658</v>
+        <v>1164068416.39349</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1855413203425659</v>
+        <v>0.1618450878068406</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02655570407925571</v>
+        <v>0.02430442919458937</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>472012549.5567026</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2800590762.787899</v>
+        <v>2075070513.888664</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1206480542086288</v>
+        <v>0.1328245192848596</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02394187681118162</v>
+        <v>0.03036190706875979</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1400295322.474333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2615850338.004904</v>
+        <v>2409486607.037148</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06357716052005674</v>
+        <v>0.07600715104861958</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04496837616862369</v>
+        <v>0.03627149436683309</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>28</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1307925146.066797</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3894245028.304826</v>
+        <v>3270916049.038711</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1000466945488291</v>
+        <v>0.09856684859873099</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05637561187054387</v>
+        <v>0.04818393301591457</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>93</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1947122522.14191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>999280638.7370286</v>
+        <v>1325707133.253294</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1807011946587579</v>
+        <v>0.15568553311155</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03789822198253994</v>
+        <v>0.05012459336024256</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>499640389.6798613</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2830127060.767379</v>
+        <v>3856008192.776853</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1485485510282301</v>
+        <v>0.1123704345706032</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03348017503159557</v>
+        <v>0.03300287809954949</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>98</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1415063577.051262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>917029217.5745212</v>
+        <v>1406225845.396811</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08186713627152309</v>
+        <v>0.09139541151192369</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02714916059757104</v>
+        <v>0.0279561796304215</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>458514691.8869674</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1314481346.584399</v>
+        <v>1066378596.208079</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1147891368580135</v>
+        <v>0.08036663506299151</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03080651425846393</v>
+        <v>0.02509472416321607</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>657240722.3357544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2877428719.89257</v>
+        <v>4037549949.144549</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1286219650517283</v>
+        <v>0.1087065177004131</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01925473662324689</v>
+        <v>0.02178133022053087</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1438714425.889669</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2775932590.412806</v>
+        <v>2395120074.358596</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1421846377532187</v>
+        <v>0.09408141666192861</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04335887638257208</v>
+        <v>0.05032905311671135</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1387966286.989291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3948753302.215738</v>
+        <v>3893864615.221298</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09963808953192785</v>
+        <v>0.1010930568956524</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03216292488436887</v>
+        <v>0.02866131314009056</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>148</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1974376671.51678</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1926123622.92225</v>
+        <v>2113082290.517792</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1019153353490529</v>
+        <v>0.1213157301793766</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02597478460075391</v>
+        <v>0.03471478327712659</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>963061840.5448869</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>990553789.1633865</v>
+        <v>953364345.0233229</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07524000204791452</v>
+        <v>0.0812052890319625</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03961645481285588</v>
+        <v>0.03584318009583014</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>495276895.3407309</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1710923204.588138</v>
+        <v>1879329095.700948</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1176631863599824</v>
+        <v>0.07979508494104233</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03176481389498549</v>
+        <v>0.02576271236876184</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>855461714.3155382</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2031733646.095139</v>
+        <v>2400906498.851413</v>
       </c>
       <c r="F33" t="n">
-        <v>0.161902252862666</v>
+        <v>0.1941179178446327</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04082579943770038</v>
+        <v>0.04933682987988246</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>100</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1015866901.142884</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1398207002.802804</v>
+        <v>1458181433.603805</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08715175888151587</v>
+        <v>0.1053811245923361</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02539091623484836</v>
+        <v>0.02057256203796777</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>699103473.9632896</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1262318028.845312</v>
+        <v>1118335034.909639</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1083026475288695</v>
+        <v>0.1106824182896867</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03010870114484478</v>
+        <v>0.02943239287406637</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>631158975.4783998</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2114478581.241741</v>
+        <v>3181457599.377782</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1550803940785808</v>
+        <v>0.1196155504122298</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02118019686240935</v>
+        <v>0.02219611548955254</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>84</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1057239343.471938</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2059586166.767481</v>
+        <v>2215102504.00012</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08322454067172641</v>
+        <v>0.1026892568737927</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02687604672608971</v>
+        <v>0.02707123578125606</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>90</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1029793118.903073</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1499583602.379439</v>
+        <v>1653311713.126943</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08660564218091524</v>
+        <v>0.08184053126340483</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02931542516182157</v>
+        <v>0.02989011138558693</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>749791850.5096551</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2081888398.786315</v>
+        <v>1572585504.879778</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1534554883595101</v>
+        <v>0.1565425599186756</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02061152710037222</v>
+        <v>0.03196796257650995</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1040944181.498937</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1199470765.004673</v>
+        <v>1718986655.206327</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1289741703532849</v>
+        <v>0.1448144169060291</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03952193925210082</v>
+        <v>0.05532813126359324</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>599735423.9186369</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2829509806.541239</v>
+        <v>1824272476.238442</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1144109001344073</v>
+        <v>0.1195311964178425</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02996402841943633</v>
+        <v>0.03820444071996854</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>84</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1414754896.301573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3701093891.072395</v>
+        <v>2787208460.467983</v>
       </c>
       <c r="F42" t="n">
-        <v>0.110809742583529</v>
+        <v>0.08964854916671046</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03605477472971028</v>
+        <v>0.02993202346006922</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>110</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1850546954.234845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2146424992.756057</v>
+        <v>2746311565.608158</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1559434982713227</v>
+        <v>0.1263573328513242</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01562678421002134</v>
+        <v>0.02338774853320426</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>121</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1073212580.613691</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1491197236.36201</v>
+        <v>1730336046.740297</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08606852461329229</v>
+        <v>0.09562161463276161</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03538553633761166</v>
+        <v>0.02290796439667868</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>745598623.0042821</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1748097407.492445</v>
+        <v>1625634134.381598</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1910485236144981</v>
+        <v>0.1607974247209178</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04712925644487921</v>
+        <v>0.04536084034946833</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>874048669.2313182</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4605841980.931318</v>
+        <v>4941546350.752505</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1777082551460868</v>
+        <v>0.1390802845143971</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03714961363280331</v>
+        <v>0.04071704453162059</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>119</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2302920994.730709</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4290047736.054635</v>
+        <v>3726065495.531364</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1998158943737753</v>
+        <v>0.1623496915251947</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04550337243294098</v>
+        <v>0.04758823440337576</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>90</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2145023883.595814</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4380828885.845246</v>
+        <v>4083133484.573348</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09311616460273668</v>
+        <v>0.08668238615320488</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03255137449880658</v>
+        <v>0.03564600535960631</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>112</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2190414455.192712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1841270164.751157</v>
+        <v>1401327416.500984</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1640003216326225</v>
+        <v>0.158201121445041</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03844059211957915</v>
+        <v>0.03309128488148969</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>920635061.3597007</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2667178906.090426</v>
+        <v>3681779728.486474</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1286722975264231</v>
+        <v>0.1312193905675587</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04698534348063409</v>
+        <v>0.05280948678654324</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>114</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1333589536.5643</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1229660764.836459</v>
+        <v>1056943222.952453</v>
       </c>
       <c r="F51" t="n">
-        <v>0.169150741100724</v>
+        <v>0.1460521004602155</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03698883815380975</v>
+        <v>0.03761354129170852</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>614830429.1762881</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5251062117.952147</v>
+        <v>4860033884.735461</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08943411979748662</v>
+        <v>0.08834866490833429</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04418240706105694</v>
+        <v>0.04795035518547293</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>138</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2625531041.833834</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2528961814.007323</v>
+        <v>3562556292.527623</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1358701789903685</v>
+        <v>0.1452961215935199</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02496754182377547</v>
+        <v>0.03355809614325479</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>96</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1264480971.996837</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4710778524.873748</v>
+        <v>4856116978.461628</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1280704049193382</v>
+        <v>0.1094965236082172</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05006178377362821</v>
+        <v>0.04145176603168897</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>109</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2355389382.345851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4205169549.551323</v>
+        <v>4541429109.602755</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2026149662456246</v>
+        <v>0.1470321320468222</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02863846737328588</v>
+        <v>0.02315367731310182</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2102584758.724953</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1427872332.576412</v>
+        <v>1877506087.482957</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1073302058912202</v>
+        <v>0.1578361257663853</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04921639222773498</v>
+        <v>0.05706560248107423</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>713936219.2108309</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3282372754.509407</v>
+        <v>4307066067.438726</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1317234678644159</v>
+        <v>0.179805262770003</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02638185924025953</v>
+        <v>0.02645684147357585</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>106</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1641186405.373701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1633733109.636888</v>
+        <v>1662800756.757183</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1538338052217661</v>
+        <v>0.1943711766718768</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02478962482684161</v>
+        <v>0.0394513359821573</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>816866573.7692943</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3724435279.139627</v>
+        <v>5314437214.099165</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08933098969325827</v>
+        <v>0.1113548089767157</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03093914043728597</v>
+        <v>0.04353664495203387</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1862217628.82732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3731133929.302436</v>
+        <v>2948633831.256049</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1358527848821105</v>
+        <v>0.1567293528450035</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02258650812319564</v>
+        <v>0.02205793646319974</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>105</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1865567111.702084</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2592593174.737764</v>
+        <v>2104963199.467613</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1548958257018815</v>
+        <v>0.153878891401407</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02268154812298524</v>
+        <v>0.03162232278889926</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>115</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1296296606.265803</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1766125623.855461</v>
+        <v>1556908652.411716</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1749568151129059</v>
+        <v>0.1527138604788956</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03902961215024451</v>
+        <v>0.04662839889316508</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>883062834.8875431</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5536242847.336816</v>
+        <v>3860719861.291544</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07052777967192914</v>
+        <v>0.082010404175395</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04509452151408919</v>
+        <v>0.03669241974423661</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2768121417.533371</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4272130272.995879</v>
+        <v>5099849007.313409</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1256595068682735</v>
+        <v>0.178141251092666</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03083179623480799</v>
+        <v>0.03538890449976417</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>104</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2136065191.509896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4350862732.96722</v>
+        <v>5827292540.318939</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1234114751016975</v>
+        <v>0.1409241318316436</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03024722203649343</v>
+        <v>0.02870494825993489</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>120</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2175431364.140539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4559154399.159164</v>
+        <v>4044611814.100662</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1376931305439651</v>
+        <v>0.1269886394435519</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04357766936943974</v>
+        <v>0.04888196291773104</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>98</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2279577203.099517</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2734764066.819559</v>
+        <v>3245698467.946771</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09251268507262311</v>
+        <v>0.07906152496125737</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03682327172257074</v>
+        <v>0.03202651083163151</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>107</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1367382074.140561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6037013538.48994</v>
+        <v>4895467889.059464</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1418055813208302</v>
+        <v>0.09931284168458065</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03997258729698831</v>
+        <v>0.03306912413639759</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>107</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3018506888.49299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2353531393.124918</v>
+        <v>2078852939.251438</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1348368567772064</v>
+        <v>0.1145747758079262</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0422949513204147</v>
+        <v>0.04489123803167908</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1176765747.261554</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3258476754.278998</v>
+        <v>2470160128.380813</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08404374734048832</v>
+        <v>0.1024933825874079</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04497060799595411</v>
+        <v>0.03170099765716163</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>96</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1629238371.029605</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4709306447.515169</v>
+        <v>3661750306.140321</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1291398086445276</v>
+        <v>0.170356024851619</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02290272092716062</v>
+        <v>0.02760013496052333</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>122</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2354653307.802443</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1400059332.548552</v>
+        <v>2040464454.554413</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07138856483672937</v>
+        <v>0.09966584860771092</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03399568326992609</v>
+        <v>0.04205139902867022</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>700029709.3996425</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3416900141.618492</v>
+        <v>3177109440.993237</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08249678838583972</v>
+        <v>0.1019078736218218</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05236700045965867</v>
+        <v>0.03328368643147189</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>127</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1708450028.628145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2603397801.334309</v>
+        <v>3395979400.7164</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1297131351052987</v>
+        <v>0.1284662986999538</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02889680825806204</v>
+        <v>0.03542232206577577</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>114</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1301699000.380711</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2357161478.624212</v>
+        <v>2183456733.693569</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1050066407130531</v>
+        <v>0.1626326606844295</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02456710287545768</v>
+        <v>0.03128518192013911</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1178580669.967961</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4746621484.642731</v>
+        <v>5285808743.810963</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1056083852494091</v>
+        <v>0.1064006773323192</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03086289063944415</v>
+        <v>0.03001462379182343</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2373310758.374918</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1437176993.943107</v>
+        <v>2082159939.423614</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1643190317729661</v>
+        <v>0.147954779096268</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02921049098615489</v>
+        <v>0.02941788194976607</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>718588475.3792449</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2907456035.198628</v>
+        <v>3831339173.868955</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0965599024138302</v>
+        <v>0.0961030068874814</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03883409432811945</v>
+        <v>0.0529222360939277</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>116</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1453728061.504345</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1184979002.584973</v>
+        <v>1495863325.617674</v>
       </c>
       <c r="F79" t="n">
-        <v>0.111938014362939</v>
+        <v>0.1649888394105138</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03848180655556163</v>
+        <v>0.03863099934367687</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>592489480.3980761</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4349314878.968601</v>
+        <v>3919690516.20377</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07373742786340008</v>
+        <v>0.1011152489745458</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02752556802099752</v>
+        <v>0.03787927739829249</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>70</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2174657456.32698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3540674459.156425</v>
+        <v>3733589637.009767</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1344756258380101</v>
+        <v>0.11075466903358</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02867796707200352</v>
+        <v>0.0222997019832274</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1770337175.757269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4409496881.140289</v>
+        <v>4476619944.055361</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2163263363628398</v>
+        <v>0.1621252354505836</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02478119428208733</v>
+        <v>0.02745984654104884</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>117</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2204748457.459794</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1792879615.825738</v>
+        <v>1815488914.622333</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1246126807710863</v>
+        <v>0.1039928404065594</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03936222215243562</v>
+        <v>0.04214081115793902</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>896439767.4197848</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2419082740.609854</v>
+        <v>1571786017.859755</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1070133080561952</v>
+        <v>0.08056888373991479</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04435026182338205</v>
+        <v>0.03669459093700417</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1209541313.91925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3291909229.807245</v>
+        <v>2268525487.098748</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1606886829053302</v>
+        <v>0.1713370544890088</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03717985235066874</v>
+        <v>0.05624850633309798</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>126</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1645954707.278945</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1946875760.612581</v>
+        <v>2230173038.132654</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1524958341623847</v>
+        <v>0.1290638175175067</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02688489461258165</v>
+        <v>0.0232404478256873</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>973437900.560205</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1189810818.299034</v>
+        <v>1039087561.223871</v>
       </c>
       <c r="F87" t="n">
-        <v>0.149724253542595</v>
+        <v>0.1331066915926447</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04130222603253928</v>
+        <v>0.04247395070490067</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>594905462.1262561</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2818419883.166031</v>
+        <v>2345295230.293158</v>
       </c>
       <c r="F88" t="n">
-        <v>0.177425397684938</v>
+        <v>0.1323408537669667</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03899426460615686</v>
+        <v>0.02427836300546379</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>132</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1409209954.102995</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3502718961.794744</v>
+        <v>3152087872.536886</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1274413762079779</v>
+        <v>0.1501801519408323</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03368022827121427</v>
+        <v>0.02836880895172234</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>113</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1751359482.16387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1310839908.407852</v>
+        <v>2032602442.905977</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1106365225267574</v>
+        <v>0.1233101256505115</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05077420423880528</v>
+        <v>0.0474048048797969</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>655419898.3000543</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2002104647.895039</v>
+        <v>1879525829.540982</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1668648377052464</v>
+        <v>0.1922612838068676</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04193745605264814</v>
+        <v>0.04190706723314425</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1001052295.961879</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1967422484.543519</v>
+        <v>2283740975.030173</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08305629312611577</v>
+        <v>0.09563173940805297</v>
       </c>
       <c r="G92" t="n">
-        <v>0.030071719712134</v>
+        <v>0.03836811300734237</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>90</v>
-      </c>
-      <c r="J92" t="n">
-        <v>983711186.0361669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3941236524.754161</v>
+        <v>3285611012.521138</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1193990708174762</v>
+        <v>0.1291495785842878</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05269414472862395</v>
+        <v>0.04124269172873812</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1970618266.782384</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2230780258.839949</v>
+        <v>2470228774.603783</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1571761550007189</v>
+        <v>0.169243760869756</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03608826923747507</v>
+        <v>0.04270265339430047</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1115390157.874374</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2338428969.105266</v>
+        <v>2437255964.633657</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08467702156916347</v>
+        <v>0.09673877407423816</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04851343532299884</v>
+        <v>0.033694253794243</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>80</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1169214532.385228</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1689668913.607236</v>
+        <v>1883236319.771537</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1094680541952028</v>
+        <v>0.09769690230787142</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03476714555423518</v>
+        <v>0.04269602144398552</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>844834476.9080347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4313776401.564312</v>
+        <v>5360362245.909992</v>
       </c>
       <c r="F97" t="n">
-        <v>0.166480210424217</v>
+        <v>0.1769567373936251</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01861949982520753</v>
+        <v>0.02208395745214638</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>108</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2156888282.402394</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2615646444.054519</v>
+        <v>3261396697.521948</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09151566000521807</v>
+        <v>0.1236831069633647</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02908914365168599</v>
+        <v>0.01988432354458346</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1307823180.667487</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2719935498.960673</v>
+        <v>3438416224.601226</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09003417108112108</v>
+        <v>0.09350256745501409</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02791114418518348</v>
+        <v>0.03350846900459661</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>105</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1359967715.192784</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4694823970.167547</v>
+        <v>3424740822.401984</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1446255620735648</v>
+        <v>0.1092151436249358</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02731566384177265</v>
+        <v>0.02173629905396811</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>105</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2347412111.242683</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2314183458.177156</v>
+        <v>3272737047.060724</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1620519569550159</v>
+        <v>0.1929276988735628</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05706683339004686</v>
+        <v>0.04448435486052608</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>135</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1157091727.505367</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_335.xlsx
+++ b/output/fit_clients/fit_round_335.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2430553303.178735</v>
+        <v>1620127834.130024</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07836055913764101</v>
+        <v>0.09102222001906908</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04108334691834412</v>
+        <v>0.03822514543841617</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1930677198.5391</v>
+        <v>2156470974.395259</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1687885663026835</v>
+        <v>0.1292329421752397</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04214241622389941</v>
+        <v>0.03822500235225493</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4598181994.697395</v>
+        <v>4337956704.193627</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1391901752758621</v>
+        <v>0.1182241678922646</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02995132897605834</v>
+        <v>0.03520120396316622</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3515984756.512596</v>
+        <v>2658052699.532755</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1027923081819735</v>
+        <v>0.09936547862529073</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03607532225150261</v>
+        <v>0.04162207797772053</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1851858855.117162</v>
+        <v>1929587402.992456</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1083790787307852</v>
+        <v>0.09258311095421044</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04556327919976118</v>
+        <v>0.05343438150126399</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3060377933.45941</v>
+        <v>2979447596.108755</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07876075326598977</v>
+        <v>0.1010077938513624</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0374174301251731</v>
+        <v>0.03775762439266635</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3350467009.018353</v>
+        <v>3775762700.211658</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1986675677234876</v>
+        <v>0.1352417425534019</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03268067201983683</v>
+        <v>0.03297006305806396</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2189049113.495823</v>
+        <v>2181671256.208893</v>
       </c>
       <c r="F9" t="n">
-        <v>0.152716511689198</v>
+        <v>0.1479133111842222</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03592779444826745</v>
+        <v>0.0244826590621968</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4699813118.016635</v>
+        <v>5716711142.409011</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1974418374518072</v>
+        <v>0.1505633806307099</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03515246917903963</v>
+        <v>0.04291384883082989</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3280592318.808558</v>
+        <v>2817426519.999887</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1435474254042335</v>
+        <v>0.1334505031477748</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04174174962293093</v>
+        <v>0.04268106659909501</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2753117593.102345</v>
+        <v>3254404943.169578</v>
       </c>
       <c r="F12" t="n">
-        <v>0.127649976144379</v>
+        <v>0.1740661076592925</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04346531836552157</v>
+        <v>0.03469329103395183</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4428235751.82859</v>
+        <v>5007911238.227529</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06239228494872892</v>
+        <v>0.07091394953136133</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03074192428961835</v>
+        <v>0.02549427712620035</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2453054022.103087</v>
+        <v>3782557772.570652</v>
       </c>
       <c r="F14" t="n">
-        <v>0.168868004325592</v>
+        <v>0.1856170346920285</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04314500603554546</v>
+        <v>0.04371163440120773</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1289709553.93</v>
+        <v>1745088701.823614</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1042781195762797</v>
+        <v>0.09685938562919669</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04157711486453121</v>
+        <v>0.03404394951078207</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2620723956.042673</v>
+        <v>2710060082.732069</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08693013823928009</v>
+        <v>0.1099725369013607</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04633018225283233</v>
+        <v>0.04144912212374526</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4857525383.395318</v>
+        <v>5270057914.956914</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1598166910492524</v>
+        <v>0.1221982092154015</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04252447474602317</v>
+        <v>0.04461402227387593</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2791861426.877582</v>
+        <v>3580855705.483428</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1451396141252336</v>
+        <v>0.1377027772262591</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02410985531498954</v>
+        <v>0.03025773551515661</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1164068416.39349</v>
+        <v>1161829343.662896</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1618450878068406</v>
+        <v>0.1293493248457098</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02430442919458937</v>
+        <v>0.02430938217487335</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2075070513.888664</v>
+        <v>2290910585.429602</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1328245192848596</v>
+        <v>0.1357734625479206</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03036190706875979</v>
+        <v>0.03192128318202129</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2409486607.037148</v>
+        <v>2706662351.949004</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07600715104861958</v>
+        <v>0.1019993224406678</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03627149436683309</v>
+        <v>0.03179382224070054</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3270916049.038711</v>
+        <v>2603060720.316194</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09856684859873099</v>
+        <v>0.10572028376588</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04818393301591457</v>
+        <v>0.05124059487856594</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1325707133.253294</v>
+        <v>1265343485.0547</v>
       </c>
       <c r="F23" t="n">
-        <v>0.15568553311155</v>
+        <v>0.1717949842102102</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05012459336024256</v>
+        <v>0.03986285744503629</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3856008192.776853</v>
+        <v>3835618092.983205</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1123704345706032</v>
+        <v>0.1296030987064786</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03300287809954949</v>
+        <v>0.02819090093889276</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1406225845.396811</v>
+        <v>1117152049.049908</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09139541151192369</v>
+        <v>0.08579793247872962</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0279561796304215</v>
+        <v>0.02522027507694551</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1066378596.208079</v>
+        <v>1322108888.965004</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08036663506299151</v>
+        <v>0.08629991851642159</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02509472416321607</v>
+        <v>0.03895080400211472</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4037549949.144549</v>
+        <v>3484323955.206811</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1087065177004131</v>
+        <v>0.10624961712486</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02178133022053087</v>
+        <v>0.02437320562974071</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2395120074.358596</v>
+        <v>3802279736.156053</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09408141666192861</v>
+        <v>0.1337286224863014</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05032905311671135</v>
+        <v>0.03827109524563613</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3893864615.221298</v>
+        <v>5503727097.604104</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1010930568956524</v>
+        <v>0.1022441409526369</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02866131314009056</v>
+        <v>0.03047722179146205</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2113082290.517792</v>
+        <v>1887558595.216565</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1213157301793766</v>
+        <v>0.1361409560487656</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03471478327712659</v>
+        <v>0.02610634760941951</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>953364345.0233229</v>
+        <v>1068670282.861642</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0812052890319625</v>
+        <v>0.09797933673544978</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03584318009583014</v>
+        <v>0.0512596499829107</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1879329095.700948</v>
+        <v>1672203007.26154</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07979508494104233</v>
+        <v>0.1072107728160671</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02576271236876184</v>
+        <v>0.03131821894555153</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2400906498.851413</v>
+        <v>2351376531.438322</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1941179178446327</v>
+        <v>0.1443958631976447</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04933682987988246</v>
+        <v>0.05909343035780849</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1458181433.603805</v>
+        <v>1096178905.628742</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1053811245923361</v>
+        <v>0.1209787720081644</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02057256203796777</v>
+        <v>0.02538170366608414</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1118335034.909639</v>
+        <v>1182850584.003027</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1106824182896867</v>
+        <v>0.1034823733886053</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02943239287406637</v>
+        <v>0.032866595441288</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3181457599.377782</v>
+        <v>2328152727.327059</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1196155504122298</v>
+        <v>0.1411941185227832</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02219611548955254</v>
+        <v>0.02042542207224586</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2215102504.00012</v>
+        <v>2376598927.95825</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1026892568737927</v>
+        <v>0.08607752066738947</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02707123578125606</v>
+        <v>0.02781189783098094</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1653311713.126943</v>
+        <v>1946747546.257648</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08184053126340483</v>
+        <v>0.07621012045223896</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02989011138558693</v>
+        <v>0.03479476931866381</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1572585504.879778</v>
+        <v>1461307645.416307</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1565425599186756</v>
+        <v>0.1428827779384482</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03196796257650995</v>
+        <v>0.02991046580490027</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1718986655.206327</v>
+        <v>1157729027.1861</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1448144169060291</v>
+        <v>0.1460744224775149</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05532813126359324</v>
+        <v>0.0405290104718558</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1824272476.238442</v>
+        <v>1977208279.93119</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1195311964178425</v>
+        <v>0.1034301869172187</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03820444071996854</v>
+        <v>0.04630878359146553</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2787208460.467983</v>
+        <v>3128892932.855905</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08964854916671046</v>
+        <v>0.1151726043817476</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02993202346006922</v>
+        <v>0.04251276657830633</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2746311565.608158</v>
+        <v>2988390840.503268</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1263573328513242</v>
+        <v>0.1527000989431898</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02338774853320426</v>
+        <v>0.0173939696111726</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1730336046.740297</v>
+        <v>2218915536.231777</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09562161463276161</v>
+        <v>0.07056480708785781</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02290796439667868</v>
+        <v>0.03672595854371696</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1625634134.381598</v>
+        <v>1611540695.375079</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1607974247209178</v>
+        <v>0.1885483821489786</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04536084034946833</v>
+        <v>0.04568295584381789</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4941546350.752505</v>
+        <v>5577071994.237317</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1390802845143971</v>
+        <v>0.1636761000809435</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04071704453162059</v>
+        <v>0.05505841590942356</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3726065495.531364</v>
+        <v>3163168945.034262</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1623496915251947</v>
+        <v>0.1650090246321162</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04758823440337576</v>
+        <v>0.05242252458702498</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4083133484.573348</v>
+        <v>4230641236.730442</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08668238615320488</v>
+        <v>0.08633935327315552</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03564600535960631</v>
+        <v>0.03857013889856938</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1401327416.500984</v>
+        <v>1912466127.200975</v>
       </c>
       <c r="F49" t="n">
-        <v>0.158201121445041</v>
+        <v>0.1613853374352719</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03309128488148969</v>
+        <v>0.03747993800519799</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3681779728.486474</v>
+        <v>3299193279.296442</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1312193905675587</v>
+        <v>0.1442118680205768</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05280948678654324</v>
+        <v>0.03390784464727097</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1056943222.952453</v>
+        <v>1329508579.759295</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1460521004602155</v>
+        <v>0.1947053671222256</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03761354129170852</v>
+        <v>0.04532017101084836</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4860033884.735461</v>
+        <v>5262344607.395926</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08834866490833429</v>
+        <v>0.118217806929687</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04795035518547293</v>
+        <v>0.05420077059172097</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3562556292.527623</v>
+        <v>2965714746.276997</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1452961215935199</v>
+        <v>0.1703839967945723</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03355809614325479</v>
+        <v>0.02991929354035955</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4856116978.461628</v>
+        <v>4436401601.764354</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1094965236082172</v>
+        <v>0.1277783626490288</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04145176603168897</v>
+        <v>0.0458712800809742</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4541429109.602755</v>
+        <v>4395928249.81022</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1470321320468222</v>
+        <v>0.1981885544900825</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02315367731310182</v>
+        <v>0.02936278837220904</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1877506087.482957</v>
+        <v>1863806518.46571</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1578361257663853</v>
+        <v>0.1349146541350492</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05706560248107423</v>
+        <v>0.054915282281176</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4307066067.438726</v>
+        <v>3447028131.143426</v>
       </c>
       <c r="F57" t="n">
-        <v>0.179805262770003</v>
+        <v>0.138999202791562</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02645684147357585</v>
+        <v>0.0203198623694929</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1662800756.757183</v>
+        <v>1908825530.223309</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1943711766718768</v>
+        <v>0.1949349096121223</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0394513359821573</v>
+        <v>0.03173208868626654</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5314437214.099165</v>
+        <v>3455907133.930922</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1113548089767157</v>
+        <v>0.1279810259920613</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04353664495203387</v>
+        <v>0.03725856014835755</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2948633831.256049</v>
+        <v>3723239690.495136</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1567293528450035</v>
+        <v>0.1299905734138884</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02205793646319974</v>
+        <v>0.02686964897218191</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2104963199.467613</v>
+        <v>2418424939.177854</v>
       </c>
       <c r="F61" t="n">
-        <v>0.153878891401407</v>
+        <v>0.1090562765496239</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03162232278889926</v>
+        <v>0.02874205595392805</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1556908652.411716</v>
+        <v>1876139625.20312</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1527138604788956</v>
+        <v>0.1388706572476994</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04662839889316508</v>
+        <v>0.04982530574060982</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3860719861.291544</v>
+        <v>3396363524.335836</v>
       </c>
       <c r="F63" t="n">
-        <v>0.082010404175395</v>
+        <v>0.08511813238379271</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03669241974423661</v>
+        <v>0.02978072399488438</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5099849007.313409</v>
+        <v>4794705026.168092</v>
       </c>
       <c r="F64" t="n">
-        <v>0.178141251092666</v>
+        <v>0.1799280400120728</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03538890449976417</v>
+        <v>0.03533327129741323</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5827292540.318939</v>
+        <v>5872767802.781387</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1409241318316436</v>
+        <v>0.1218295049735196</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02870494825993489</v>
+        <v>0.02816655316561931</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4044611814.100662</v>
+        <v>5674758350.698298</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1269886394435519</v>
+        <v>0.1408429540793251</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04888196291773104</v>
+        <v>0.03189633984524145</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3245698467.946771</v>
+        <v>3062828103.637898</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07906152496125737</v>
+        <v>0.0988826931855124</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03202651083163151</v>
+        <v>0.03336125324854833</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4895467889.059464</v>
+        <v>4437677864.950355</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09931284168458065</v>
+        <v>0.1552588661587231</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03306912413639759</v>
+        <v>0.04213114008590494</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2078852939.251438</v>
+        <v>1805822571.912124</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1145747758079262</v>
+        <v>0.1633649339610537</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04489123803167908</v>
+        <v>0.04180407655008698</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2470160128.380813</v>
+        <v>3313943653.973658</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1024933825874079</v>
+        <v>0.07540107512987117</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03170099765716163</v>
+        <v>0.04820705219182538</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3661750306.140321</v>
+        <v>5199341987.334208</v>
       </c>
       <c r="F71" t="n">
-        <v>0.170356024851619</v>
+        <v>0.1428601592857133</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02760013496052333</v>
+        <v>0.02960105132228856</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2040464454.554413</v>
+        <v>1777977845.256182</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09966584860771092</v>
+        <v>0.09840611331834188</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04205139902867022</v>
+        <v>0.03686303618549383</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3177109440.993237</v>
+        <v>2578972791.790941</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1019078736218218</v>
+        <v>0.07640318827620012</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03328368643147189</v>
+        <v>0.04584732307241095</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3395979400.7164</v>
+        <v>2789977638.361901</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1284662986999538</v>
+        <v>0.1667277552112164</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03542232206577577</v>
+        <v>0.02191217713015476</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2183456733.693569</v>
+        <v>1751591713.778168</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1626326606844295</v>
+        <v>0.1123976524796279</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03128518192013911</v>
+        <v>0.02997311741484204</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5285808743.810963</v>
+        <v>3632991845.229325</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1064006773323192</v>
+        <v>0.08371972158965432</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03001462379182343</v>
+        <v>0.03013836053895603</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2082159939.423614</v>
+        <v>1782148596.785434</v>
       </c>
       <c r="F77" t="n">
-        <v>0.147954779096268</v>
+        <v>0.1344647266672162</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02941788194976607</v>
+        <v>0.02843188916168873</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3831339173.868955</v>
+        <v>4578802679.057646</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0961030068874814</v>
+        <v>0.1283832029966721</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0529222360939277</v>
+        <v>0.03696304260921177</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1495863325.617674</v>
+        <v>1660005195.576934</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1649888394105138</v>
+        <v>0.1675911119104515</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03863099934367687</v>
+        <v>0.03159659553064766</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3919690516.20377</v>
+        <v>5604354444.644693</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1011152489745458</v>
+        <v>0.08389936252253542</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03787927739829249</v>
+        <v>0.03587017437261612</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3733589637.009767</v>
+        <v>4248544713.242468</v>
       </c>
       <c r="F81" t="n">
-        <v>0.11075466903358</v>
+        <v>0.1126362648270386</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0222997019832274</v>
+        <v>0.02045184140441366</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4476619944.055361</v>
+        <v>4017606891.334999</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1621252354505836</v>
+        <v>0.1638116224497685</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02745984654104884</v>
+        <v>0.02933492084092978</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1815488914.622333</v>
+        <v>1651961207.663081</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1039928404065594</v>
+        <v>0.1357428672928965</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04214081115793902</v>
+        <v>0.03086253842320022</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1571786017.859755</v>
+        <v>1986232855.428436</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08056888373991479</v>
+        <v>0.0868172152560166</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03669459093700417</v>
+        <v>0.04311613078932054</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2268525487.098748</v>
+        <v>3588594021.608425</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1713370544890088</v>
+        <v>0.1485023463463224</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05624850633309798</v>
+        <v>0.05610755525387939</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2230173038.132654</v>
+        <v>2340474014.580007</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1290638175175067</v>
+        <v>0.1175045231543754</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0232404478256873</v>
+        <v>0.01939169269057953</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1039087561.223871</v>
+        <v>1139780034.681898</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1331066915926447</v>
+        <v>0.1619773291513427</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04247395070490067</v>
+        <v>0.02708056414355412</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2345295230.293158</v>
+        <v>2741035797.230478</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1323408537669667</v>
+        <v>0.1369090185613165</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02427836300546379</v>
+        <v>0.02479665190525785</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3152087872.536886</v>
+        <v>2313413683.64187</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1501801519408323</v>
+        <v>0.1009510890385357</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02836880895172234</v>
+        <v>0.03015349967700742</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2032602442.905977</v>
+        <v>1866593768.008302</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1233101256505115</v>
+        <v>0.1304406510680834</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0474048048797969</v>
+        <v>0.03728678046576821</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1879525829.540982</v>
+        <v>1350970568.698888</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1922612838068676</v>
+        <v>0.1640568713001456</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04190706723314425</v>
+        <v>0.0503152159619168</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2283740975.030173</v>
+        <v>1882217849.152311</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09563173940805297</v>
+        <v>0.09479733798117811</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03836811300734237</v>
+        <v>0.03016082411097736</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3285611012.521138</v>
+        <v>3508244947.059014</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1291495785842878</v>
+        <v>0.1368047638194934</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04124269172873812</v>
+        <v>0.03916183587159143</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2470228774.603783</v>
+        <v>1841370127.139385</v>
       </c>
       <c r="F94" t="n">
-        <v>0.169243760869756</v>
+        <v>0.126876656840456</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04270265339430047</v>
+        <v>0.03049026154593597</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2437255964.633657</v>
+        <v>2826812456.445164</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09673877407423816</v>
+        <v>0.1356604348068268</v>
       </c>
       <c r="G95" t="n">
-        <v>0.033694253794243</v>
+        <v>0.0319628353285422</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1883236319.771537</v>
+        <v>2031466095.434308</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09769690230787142</v>
+        <v>0.1234811864693752</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04269602144398552</v>
+        <v>0.03397867280975173</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5360362245.909992</v>
+        <v>4259239906.156768</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1769567373936251</v>
+        <v>0.1570717812125898</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02208395745214638</v>
+        <v>0.01837751218075222</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3261396697.521948</v>
+        <v>2918265932.999396</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1236831069633647</v>
+        <v>0.09484387022886996</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01988432354458346</v>
+        <v>0.02190220440567015</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3438416224.601226</v>
+        <v>2526367277.211942</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09350256745501409</v>
+        <v>0.1475462234104706</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03350846900459661</v>
+        <v>0.03495223267663482</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3424740822.401984</v>
+        <v>3557767178.399038</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1092151436249358</v>
+        <v>0.1677762561140805</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02173629905396811</v>
+        <v>0.01915756508772417</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3272737047.060724</v>
+        <v>3374359382.382874</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1929276988735628</v>
+        <v>0.1889451520394867</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04448435486052608</v>
+        <v>0.04544896361019784</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_335.xlsx
+++ b/output/fit_clients/fit_round_335.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1620127834.130024</v>
+        <v>1724738842.078717</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09102222001906908</v>
+        <v>0.09771815685473137</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03822514543841617</v>
+        <v>0.04100328652080526</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2156470974.395259</v>
+        <v>2368024911.268312</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1292329421752397</v>
+        <v>0.1326543932201036</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03822500235225493</v>
+        <v>0.03539482457957082</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4337956704.193627</v>
+        <v>4686783991.50983</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1182241678922646</v>
+        <v>0.1045077661163873</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03520120396316622</v>
+        <v>0.03204093862392578</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>174</v>
+      </c>
+      <c r="J4" t="n">
+        <v>334</v>
+      </c>
+      <c r="K4" t="n">
+        <v>69.02365961781879</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2658052699.532755</v>
+        <v>3026758561.370084</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09936547862529073</v>
+        <v>0.07621687120107699</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04162207797772053</v>
+        <v>0.04873536225464813</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>133</v>
+      </c>
+      <c r="J5" t="n">
+        <v>334</v>
+      </c>
+      <c r="K5" t="n">
+        <v>56.34487589234471</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1929587402.992456</v>
+        <v>1882797109.579641</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09258311095421044</v>
+        <v>0.1382861849512754</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05343438150126399</v>
+        <v>0.05289466873054837</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2979447596.108755</v>
+        <v>2682450878.312421</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1010077938513624</v>
+        <v>0.06546461851002168</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03775762439266635</v>
+        <v>0.0348391951677014</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3775762700.211658</v>
+        <v>3085003190.937307</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1352417425534019</v>
+        <v>0.1579398591535419</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03297006305806396</v>
+        <v>0.02131545031856031</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>327</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2181671256.208893</v>
+        <v>2175435633.714401</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1479133111842222</v>
+        <v>0.136131048431819</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0244826590621968</v>
+        <v>0.03165686177534452</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5716711142.409011</v>
+        <v>3966903240.452749</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1505633806307099</v>
+        <v>0.1445573206576826</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04291384883082989</v>
+        <v>0.05339363280118204</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>288</v>
+      </c>
+      <c r="J10" t="n">
+        <v>334</v>
+      </c>
+      <c r="K10" t="n">
+        <v>69.02802635212913</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2817426519.999887</v>
+        <v>3824586468.249712</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1334505031477748</v>
+        <v>0.1253078466237913</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04268106659909501</v>
+        <v>0.04412113930978116</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>136</v>
+      </c>
+      <c r="J11" t="n">
+        <v>335</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3254404943.169578</v>
+        <v>2836349088.766707</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1740661076592925</v>
+        <v>0.1705085050783227</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03469329103395183</v>
+        <v>0.05290668949621437</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5007911238.227529</v>
+        <v>3773861970.740131</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07091394953136133</v>
+        <v>0.07250382617368964</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02549427712620035</v>
+        <v>0.03027975467726922</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>174</v>
+      </c>
+      <c r="J13" t="n">
+        <v>335</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3782557772.570652</v>
+        <v>3313624782.282913</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1856170346920285</v>
+        <v>0.1559937735451203</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04371163440120773</v>
+        <v>0.03355197314002844</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>68</v>
+      </c>
+      <c r="J14" t="n">
+        <v>331</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1745088701.823614</v>
+        <v>1512325889.855542</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09685938562919669</v>
+        <v>0.08820601038515831</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03404394951078207</v>
+        <v>0.03436585947371493</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2710060082.732069</v>
+        <v>2214542032.85828</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1099725369013607</v>
+        <v>0.09576182259025513</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04144912212374526</v>
+        <v>0.03562565041455255</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5270057914.956914</v>
+        <v>3490836768.149372</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1221982092154015</v>
+        <v>0.1059577897998535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04461402227387593</v>
+        <v>0.04747767776680369</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>158</v>
+      </c>
+      <c r="J17" t="n">
+        <v>334</v>
+      </c>
+      <c r="K17" t="n">
+        <v>59.65919890802698</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3580855705.483428</v>
+        <v>3199049396.563439</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1377027772262591</v>
+        <v>0.1813333251122079</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03025773551515661</v>
+        <v>0.02214020267676935</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>82</v>
+      </c>
+      <c r="J18" t="n">
+        <v>329</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1161829343.662896</v>
+        <v>1200390419.941609</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1293493248457098</v>
+        <v>0.1639830326307395</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02430938217487335</v>
+        <v>0.01729025494801638</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2290910585.429602</v>
+        <v>2239031542.660205</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1357734625479206</v>
+        <v>0.1409493338966398</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03192128318202129</v>
+        <v>0.02878110861115222</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2706662351.949004</v>
+        <v>2039372693.164269</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1019993224406678</v>
+        <v>0.07026482988923508</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03179382224070054</v>
+        <v>0.03430572376215992</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2603060720.316194</v>
+        <v>3361246370.429589</v>
       </c>
       <c r="F22" t="n">
-        <v>0.10572028376588</v>
+        <v>0.1241178511955417</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05124059487856594</v>
+        <v>0.05125235578570266</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>92</v>
+      </c>
+      <c r="J22" t="n">
+        <v>331</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1265343485.0547</v>
+        <v>988456124.1170318</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1717949842102102</v>
+        <v>0.1408480568026899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03986285744503629</v>
+        <v>0.03986873096708431</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3835618092.983205</v>
+        <v>3324384628.40152</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1296030987064786</v>
+        <v>0.1025751190132561</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02819090093889276</v>
+        <v>0.03369634620092168</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>99</v>
+      </c>
+      <c r="J24" t="n">
+        <v>332</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1117152049.049908</v>
+        <v>991241807.3510455</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08579793247872962</v>
+        <v>0.086203281784896</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02522027507694551</v>
+        <v>0.02296263947704669</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1322108888.965004</v>
+        <v>1066399428.516301</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08629991851642159</v>
+        <v>0.09567706637030871</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03895080400211472</v>
+        <v>0.03140465852132514</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3484323955.206811</v>
+        <v>3785581454.998162</v>
       </c>
       <c r="F27" t="n">
-        <v>0.10624961712486</v>
+        <v>0.156437680860419</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02437320562974071</v>
+        <v>0.01962238229981774</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>139</v>
+      </c>
+      <c r="J27" t="n">
+        <v>335</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3802279736.156053</v>
+        <v>3420315205.654548</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1337286224863014</v>
+        <v>0.1110251570178126</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03827109524563613</v>
+        <v>0.03218110750698937</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>72</v>
+      </c>
+      <c r="J28" t="n">
+        <v>335</v>
+      </c>
+      <c r="K28" t="n">
+        <v>70.82474679718158</v>
       </c>
     </row>
     <row r="29">
@@ -1242,17 +1456,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5503727097.604104</v>
+        <v>4566390887.399912</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1022441409526369</v>
+        <v>0.09262016666772233</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03047722179146205</v>
+        <v>0.04028695980124711</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>304</v>
+      </c>
+      <c r="J29" t="n">
+        <v>335</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1887558595.216565</v>
+        <v>1593854055.574233</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1361409560487656</v>
+        <v>0.09356516077782798</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02610634760941951</v>
+        <v>0.02609341339578994</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1068670282.861642</v>
+        <v>1107529000.092993</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09797933673544978</v>
+        <v>0.09389273679398979</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0512596499829107</v>
+        <v>0.04775821838087765</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1672203007.26154</v>
+        <v>1236636833.775038</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1072107728160671</v>
+        <v>0.1102521160170943</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03131821894555153</v>
+        <v>0.02949436708893687</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2351376531.438322</v>
+        <v>2698222093.296575</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1443958631976447</v>
+        <v>0.1281356599987858</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05909343035780849</v>
+        <v>0.04948142865302664</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1096178905.628742</v>
+        <v>1170126652.348392</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1209787720081644</v>
+        <v>0.1178571400736937</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02538170366608414</v>
+        <v>0.01863028182298333</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1182850584.003027</v>
+        <v>901362588.439839</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1034823733886053</v>
+        <v>0.1026205419242878</v>
       </c>
       <c r="G35" t="n">
-        <v>0.032866595441288</v>
+        <v>0.02801230697424473</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2328152727.327059</v>
+        <v>3196741247.268034</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1411941185227832</v>
+        <v>0.1569757842020454</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02042542207224586</v>
+        <v>0.02695051681662461</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2376598927.95825</v>
+        <v>2667272966.350075</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08607752066738947</v>
+        <v>0.08543725099868396</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02781189783098094</v>
+        <v>0.04053749398895481</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1946747546.257648</v>
+        <v>2171673380.605431</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07621012045223896</v>
+        <v>0.09270404015024425</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03479476931866381</v>
+        <v>0.03169338499068364</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1461307645.416307</v>
+        <v>1660118619.831926</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1428827779384482</v>
+        <v>0.187098841713169</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02991046580490027</v>
+        <v>0.02630351545089842</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1157729027.1861</v>
+        <v>1378018725.939443</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1460744224775149</v>
+        <v>0.1235350009455945</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0405290104718558</v>
+        <v>0.04766700971397474</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1977208279.93119</v>
+        <v>2609534123.973247</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1034301869172187</v>
+        <v>0.1094418315854393</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04630878359146553</v>
+        <v>0.03572092035558906</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3128892932.855905</v>
+        <v>4333320956.186305</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1151726043817476</v>
+        <v>0.1250849144639463</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04251276657830633</v>
+        <v>0.03819603471154132</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>142</v>
+      </c>
+      <c r="J42" t="n">
+        <v>335</v>
+      </c>
+      <c r="K42" t="n">
+        <v>79.67713551728573</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2988390840.503268</v>
+        <v>2254031047.82895</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1527000989431898</v>
+        <v>0.1846913960497601</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0173939696111726</v>
+        <v>0.02385457650438172</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2218915536.231777</v>
+        <v>1815241087.600087</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07056480708785781</v>
+        <v>0.07497567271083774</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03672595854371696</v>
+        <v>0.03011054370184046</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1611540695.375079</v>
+        <v>1996282337.538401</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1885483821489786</v>
+        <v>0.1183591911208748</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04568295584381789</v>
+        <v>0.04356424956432398</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5577071994.237317</v>
+        <v>3485313473.624239</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1636761000809435</v>
+        <v>0.1338100447941494</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05505841590942356</v>
+        <v>0.0444396842138827</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>200</v>
+      </c>
+      <c r="J46" t="n">
+        <v>334</v>
+      </c>
+      <c r="K46" t="n">
+        <v>60.58336579278983</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2090,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3163168945.034262</v>
+        <v>3673587933.635632</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1650090246321162</v>
+        <v>0.1693882127842244</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05242252458702498</v>
+        <v>0.05382729228571546</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>149</v>
+      </c>
+      <c r="J47" t="n">
+        <v>334</v>
+      </c>
+      <c r="K47" t="n">
+        <v>57.1633593421303</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4230641236.730442</v>
+        <v>3550747807.401103</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08633935327315552</v>
+        <v>0.09736826678579603</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03857013889856938</v>
+        <v>0.02769233328855214</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>166</v>
+      </c>
+      <c r="J48" t="n">
+        <v>334</v>
+      </c>
+      <c r="K48" t="n">
+        <v>66.80103193346201</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1912466127.200975</v>
+        <v>1786715762.389183</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1613853374352719</v>
+        <v>0.1951151699224904</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03747993800519799</v>
+        <v>0.03859851886468716</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3299193279.296442</v>
+        <v>3281201346.527928</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1442118680205768</v>
+        <v>0.1675629610068665</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03390784464727097</v>
+        <v>0.04448734384702165</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>110</v>
+      </c>
+      <c r="J50" t="n">
+        <v>333</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1329508579.759295</v>
+        <v>1040615649.925636</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1947053671222256</v>
+        <v>0.1193811221157154</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04532017101084836</v>
+        <v>0.05074083847987607</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5262344607.395926</v>
+        <v>4665753744.569887</v>
       </c>
       <c r="F52" t="n">
-        <v>0.118217806929687</v>
+        <v>0.1224473290761796</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05420077059172097</v>
+        <v>0.04167101005912829</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>202</v>
+      </c>
+      <c r="J52" t="n">
+        <v>334</v>
+      </c>
+      <c r="K52" t="n">
+        <v>67.07253289530153</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2965714746.276997</v>
+        <v>3642555934.299008</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1703839967945723</v>
+        <v>0.129380776832338</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02991929354035955</v>
+        <v>0.03417677085096744</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>335</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4436401601.764354</v>
+        <v>4798607485.259045</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1277783626490288</v>
+        <v>0.1699410026412449</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0458712800809742</v>
+        <v>0.04925327160719185</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>177</v>
+      </c>
+      <c r="J54" t="n">
+        <v>335</v>
+      </c>
+      <c r="K54" t="n">
+        <v>69.79429627761172</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2378,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4395928249.81022</v>
+        <v>3420869317.683039</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1981885544900825</v>
+        <v>0.1612921132949124</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02936278837220904</v>
+        <v>0.02344031403567496</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>159</v>
+      </c>
+      <c r="J55" t="n">
+        <v>334</v>
+      </c>
+      <c r="K55" t="n">
+        <v>57.50166788839856</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1863806518.46571</v>
+        <v>1813954527.944834</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1349146541350492</v>
+        <v>0.1044825017071965</v>
       </c>
       <c r="G56" t="n">
-        <v>0.054915282281176</v>
+        <v>0.04466958006893495</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2444,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3447028131.143426</v>
+        <v>3123431588.278438</v>
       </c>
       <c r="F57" t="n">
-        <v>0.138999202791562</v>
+        <v>0.1752722229659813</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0203198623694929</v>
+        <v>0.01824927877403519</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>137</v>
+      </c>
+      <c r="J57" t="n">
+        <v>334</v>
+      </c>
+      <c r="K57" t="n">
+        <v>51.46690929311684</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1908825530.223309</v>
+        <v>1353099841.074435</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1949349096121223</v>
+        <v>0.1726234670630269</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03173208868626654</v>
+        <v>0.02415433330986794</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2522,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3455907133.930922</v>
+        <v>4214559512.7414</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1279810259920613</v>
+        <v>0.08500090686042361</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03725856014835755</v>
+        <v>0.04172003743893923</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>161</v>
+      </c>
+      <c r="J59" t="n">
+        <v>335</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3723239690.495136</v>
+        <v>2416754617.277449</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1299905734138884</v>
+        <v>0.1419783223924877</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02686964897218191</v>
+        <v>0.03101872424326627</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>58</v>
+      </c>
+      <c r="J60" t="n">
+        <v>330</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2418424939.177854</v>
+        <v>3248704668.264021</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1090562765496239</v>
+        <v>0.1546072600605524</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02874205595392805</v>
+        <v>0.02419076512865708</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1876139625.20312</v>
+        <v>1649755234.763787</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1388706572476994</v>
+        <v>0.1649656371379775</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04982530574060982</v>
+        <v>0.03690025157965592</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2662,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3396363524.335836</v>
+        <v>4656091901.457264</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08511813238379271</v>
+        <v>0.09596812501222468</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02978072399488438</v>
+        <v>0.0360621079779684</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>163</v>
+      </c>
+      <c r="J63" t="n">
+        <v>335</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2697,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4794705026.168092</v>
+        <v>4035915520.427822</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1799280400120728</v>
+        <v>0.1270081626962541</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03533327129741323</v>
+        <v>0.0303174577591835</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>165</v>
+      </c>
+      <c r="J64" t="n">
+        <v>335</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5872767802.781387</v>
+        <v>4339657717.519773</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1218295049735196</v>
+        <v>0.1664909703424725</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02816655316561931</v>
+        <v>0.02124410532314226</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>261</v>
+      </c>
+      <c r="J65" t="n">
+        <v>334</v>
+      </c>
+      <c r="K65" t="n">
+        <v>68.85859305709788</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5674758350.698298</v>
+        <v>4686050010.89988</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1408429540793251</v>
+        <v>0.1556199424882431</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03189633984524145</v>
+        <v>0.04322627113408986</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>165</v>
+      </c>
+      <c r="J66" t="n">
+        <v>335</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3062828103.637898</v>
+        <v>2306472131.978206</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0988826931855124</v>
+        <v>0.07566516191488545</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03336125324854833</v>
+        <v>0.05045666367404111</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4437677864.950355</v>
+        <v>4786812111.322562</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1552588661587231</v>
+        <v>0.1100527944912491</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04213114008590494</v>
+        <v>0.03224406835904404</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>182</v>
+      </c>
+      <c r="J68" t="n">
+        <v>335</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1805822571.912124</v>
+        <v>2266463374.239419</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1633649339610537</v>
+        <v>0.1411715400045045</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04180407655008698</v>
+        <v>0.04439426093912725</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3313943653.973658</v>
+        <v>2589432193.104139</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07540107512987117</v>
+        <v>0.08235108656694745</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04820705219182538</v>
+        <v>0.03266709755822763</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2944,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5199341987.334208</v>
+        <v>4801739399.519714</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1428601592857133</v>
+        <v>0.1633843095933096</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02960105132228856</v>
+        <v>0.02637333516210696</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>247</v>
+      </c>
+      <c r="J71" t="n">
+        <v>334</v>
+      </c>
+      <c r="K71" t="n">
+        <v>67.0789875134043</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1777977845.256182</v>
+        <v>2084512582.163905</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09840611331834188</v>
+        <v>0.06669325994335364</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03686303618549383</v>
+        <v>0.03991671939083489</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2578972791.790941</v>
+        <v>2646049702.789454</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07640318827620012</v>
+        <v>0.07128371264504334</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04584732307241095</v>
+        <v>0.04646934665461926</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2789977638.361901</v>
+        <v>4009923066.700339</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1667277552112164</v>
+        <v>0.1171984537431849</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02191217713015476</v>
+        <v>0.03219018268366724</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>88</v>
+      </c>
+      <c r="J74" t="n">
+        <v>335</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1751591713.778168</v>
+        <v>1768543692.105547</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1123976524796279</v>
+        <v>0.1017030613549891</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02997311741484204</v>
+        <v>0.03151546138630178</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3632991845.229325</v>
+        <v>3387981534.824995</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08371972158965432</v>
+        <v>0.110821369632074</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03013836053895603</v>
+        <v>0.03145865537733431</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>158</v>
+      </c>
+      <c r="J76" t="n">
+        <v>334</v>
+      </c>
+      <c r="K76" t="n">
+        <v>53.07799308158271</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1782148596.785434</v>
+        <v>1534969074.843787</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1344647266672162</v>
+        <v>0.181544768748749</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02843188916168873</v>
+        <v>0.03150243659804775</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4578802679.057646</v>
+        <v>3534401864.34464</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1283832029966721</v>
+        <v>0.09659954633151867</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03696304260921177</v>
+        <v>0.03814402277054781</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>164</v>
+      </c>
+      <c r="J78" t="n">
+        <v>335</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1660005195.576934</v>
+        <v>1818013529.495416</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1675911119104515</v>
+        <v>0.1414562891696469</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03159659553064766</v>
+        <v>0.03926479690438499</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5604354444.644693</v>
+        <v>5394457381.844703</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08389936252253542</v>
+        <v>0.07464491905391146</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03587017437261612</v>
+        <v>0.03536249685715304</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>164</v>
+      </c>
+      <c r="J80" t="n">
+        <v>334</v>
+      </c>
+      <c r="K80" t="n">
+        <v>52.70945293082848</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4248544713.242468</v>
+        <v>5052765079.978172</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1126362648270386</v>
+        <v>0.1015818396152847</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02045184140441366</v>
+        <v>0.02017610804039946</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>154</v>
+      </c>
+      <c r="J81" t="n">
+        <v>335</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4017606891.334999</v>
+        <v>3677581335.077274</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1638116224497685</v>
+        <v>0.1857433310407012</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02933492084092978</v>
+        <v>0.02353100684065109</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>240</v>
+      </c>
+      <c r="J82" t="n">
+        <v>335</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1651961207.663081</v>
+        <v>1834764930.734617</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1357428672928965</v>
+        <v>0.1314231800014676</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03086253842320022</v>
+        <v>0.04073827955874931</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1986232855.428436</v>
+        <v>2550620825.506409</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0868172152560166</v>
+        <v>0.08922194997984276</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04311613078932054</v>
+        <v>0.03304650253224168</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3588594021.608425</v>
+        <v>2488950752.751256</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1485023463463224</v>
+        <v>0.1729733358334588</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05610755525387939</v>
+        <v>0.03866386323261251</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>44</v>
+      </c>
+      <c r="J85" t="n">
+        <v>332</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2340474014.580007</v>
+        <v>2189036095.551354</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1175045231543754</v>
+        <v>0.1727650890439308</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01939169269057953</v>
+        <v>0.01765967934893122</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1139780034.681898</v>
+        <v>1140892583.33485</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1619773291513427</v>
+        <v>0.1395774558372426</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02708056414355412</v>
+        <v>0.04341728954887546</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2741035797.230478</v>
+        <v>2974031900.357301</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1369090185613165</v>
+        <v>0.1073039790061515</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02479665190525785</v>
+        <v>0.03618503472090213</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2313413683.64187</v>
+        <v>2904235750.349966</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1009510890385357</v>
+        <v>0.1500541465627037</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03015349967700742</v>
+        <v>0.03641597570253823</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1866593768.008302</v>
+        <v>2133976420.673607</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1304406510680834</v>
+        <v>0.1363742456797283</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03728678046576821</v>
+        <v>0.03662234709577841</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1350970568.698888</v>
+        <v>2071477344.288071</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1640568713001456</v>
+        <v>0.1409539100641759</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0503152159619168</v>
+        <v>0.05353227081027224</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1882217849.152311</v>
+        <v>2612102181.804325</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09479733798117811</v>
+        <v>0.09530068551815116</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03016082411097736</v>
+        <v>0.02901503214076386</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3508244947.059014</v>
+        <v>3791244658.353744</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1368047638194934</v>
+        <v>0.1379598331993902</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03916183587159143</v>
+        <v>0.05472509838673093</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>154</v>
+      </c>
+      <c r="J93" t="n">
+        <v>334</v>
+      </c>
+      <c r="K93" t="n">
+        <v>68.78309661692377</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1841370127.139385</v>
+        <v>1571368316.567739</v>
       </c>
       <c r="F94" t="n">
-        <v>0.126876656840456</v>
+        <v>0.1418800059715711</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03049026154593597</v>
+        <v>0.03885079887211566</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2826812456.445164</v>
+        <v>1975285738.622248</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1356604348068268</v>
+        <v>0.08591632078158985</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0319628353285422</v>
+        <v>0.03413521991152489</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2031466095.434308</v>
+        <v>1980251888.157173</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1234811864693752</v>
+        <v>0.1397943586576624</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03397867280975173</v>
+        <v>0.02984963428741611</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4259239906.156768</v>
+        <v>4198240585.769006</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1570717812125898</v>
+        <v>0.1689941862508872</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01837751218075222</v>
+        <v>0.01805255376488069</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>172</v>
+      </c>
+      <c r="J97" t="n">
+        <v>335</v>
+      </c>
+      <c r="K97" t="n">
+        <v>71.43546723161056</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2918265932.999396</v>
+        <v>3539463784.612583</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09484387022886996</v>
+        <v>0.09222635969630087</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02190220440567015</v>
+        <v>0.03001549510847722</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>83</v>
+      </c>
+      <c r="J98" t="n">
+        <v>335</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2526367277.211942</v>
+        <v>2092569314.079504</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1475462234104706</v>
+        <v>0.1331679994429841</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03495223267663482</v>
+        <v>0.02300287600524242</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3557767178.399038</v>
+        <v>3961673898.711174</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1677762561140805</v>
+        <v>0.1163073202873711</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01915756508772417</v>
+        <v>0.02797291544500016</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>150</v>
+      </c>
+      <c r="J100" t="n">
+        <v>335</v>
+      </c>
+      <c r="K100" t="n">
+        <v>71.95967001983027</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3374359382.382874</v>
+        <v>3457792232.53715</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1889451520394867</v>
+        <v>0.1353777687045189</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04544896361019784</v>
+        <v>0.03931883585113145</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>31</v>
+      </c>
+      <c r="J101" t="n">
+        <v>331</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
